--- a/DATA/Human anatomy/Human anatomy.xlsx
+++ b/DATA/Human anatomy/Human anatomy.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="149">
   <si>
     <t>Рабочий язык конференции (Language of the conference):</t>
   </si>
@@ -408,6 +408,60 @@
   </si>
   <si>
     <t>Педиатрия</t>
+  </si>
+  <si>
+    <t>Пример темы12</t>
+  </si>
+  <si>
+    <t>Пищуленок</t>
+  </si>
+  <si>
+    <t>Никита</t>
+  </si>
+  <si>
+    <t>Александрович</t>
+  </si>
+  <si>
+    <t>2000-10-01</t>
+  </si>
+  <si>
+    <t>Доцент (PhD)</t>
+  </si>
+  <si>
+    <t>Педиатрический (Pediatrics)</t>
+  </si>
+  <si>
+    <t>niki1995-11@mail.ru</t>
+  </si>
+  <si>
+    <t>+375336111623</t>
+  </si>
+  <si>
+    <t>Задруцкий</t>
+  </si>
+  <si>
+    <t>Арсений</t>
+  </si>
+  <si>
+    <t>Козлов</t>
+  </si>
+  <si>
+    <t>Евгений</t>
+  </si>
+  <si>
+    <t>Николаевич</t>
+  </si>
+  <si>
+    <t>PhD</t>
+  </si>
+  <si>
+    <t>Главный врач</t>
+  </si>
+  <si>
+    <t>Акушерство и гинекология</t>
+  </si>
+  <si>
+    <t>njjjh@mail.ru</t>
   </si>
 </sst>
 </file>
@@ -746,7 +800,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:BA5"/>
+  <dimension ref="A1:BA7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,6 +1363,248 @@
         <v>107</v>
       </c>
       <c r="BA5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" t="s">
+        <v>93</v>
+      </c>
+      <c r="K6" t="s">
+        <v>136</v>
+      </c>
+      <c r="L6" t="s">
+        <v>137</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>138</v>
+      </c>
+      <c r="O6" t="s">
+        <v>139</v>
+      </c>
+      <c r="P6" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>141</v>
+      </c>
+      <c r="R6" t="s">
+        <v>92</v>
+      </c>
+      <c r="S6" t="s">
+        <v>67</v>
+      </c>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>148</v>
+      </c>
+      <c r="AM6"/>
+      <c r="AN6"/>
+      <c r="AO6"/>
+      <c r="AP6"/>
+      <c r="AQ6"/>
+      <c r="AR6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS6"/>
+      <c r="AT6"/>
+      <c r="AU6"/>
+      <c r="AV6"/>
+      <c r="AW6"/>
+      <c r="AX6"/>
+      <c r="AY6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>107</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>138</v>
+      </c>
+      <c r="O7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>141</v>
+      </c>
+      <c r="R7" t="s">
+        <v>92</v>
+      </c>
+      <c r="S7" t="s">
+        <v>67</v>
+      </c>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>148</v>
+      </c>
+      <c r="AM7"/>
+      <c r="AN7"/>
+      <c r="AO7"/>
+      <c r="AP7"/>
+      <c r="AQ7"/>
+      <c r="AR7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS7"/>
+      <c r="AT7"/>
+      <c r="AU7"/>
+      <c r="AV7"/>
+      <c r="AW7"/>
+      <c r="AX7"/>
+      <c r="AY7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>107</v>
+      </c>
+      <c r="BA7" t="s">
         <v>88</v>
       </c>
     </row>
